--- a/src/test/resources/io.dingodb.test/testdata/txnlsmcases/index/index_cases1_txnlsm.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/txnlsmcases/index/index_cases1_txnlsm.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$257</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -4702,12 +4702,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -4722,11 +4728,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5030,8 +5037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A228" sqref="A228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5094,7 +5101,7 @@
         <v>1075</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>327</v>
@@ -5129,7 +5136,7 @@
         <v>1076</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>817</v>
@@ -5164,7 +5171,7 @@
         <v>1077</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>818</v>
@@ -5199,7 +5206,7 @@
         <v>1078</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>328</v>
@@ -5234,7 +5241,7 @@
         <v>1079</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>329</v>
@@ -5269,7 +5276,7 @@
         <v>1080</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>330</v>
@@ -5304,7 +5311,7 @@
         <v>1081</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>331</v>
@@ -5339,7 +5346,7 @@
         <v>1082</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>33</v>
@@ -5374,7 +5381,7 @@
         <v>1083</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>36</v>
@@ -5409,7 +5416,7 @@
         <v>1084</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>40</v>
@@ -5444,7 +5451,7 @@
         <v>1085</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>44</v>
@@ -5479,7 +5486,7 @@
         <v>1086</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>48</v>
@@ -5514,7 +5521,7 @@
         <v>1087</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>52</v>
@@ -5549,7 +5556,7 @@
         <v>1088</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>56</v>
@@ -5584,7 +5591,7 @@
         <v>1089</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>74</v>
@@ -5619,7 +5626,7 @@
         <v>1090</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>75</v>
@@ -5654,7 +5661,7 @@
         <v>1091</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>76</v>
@@ -5689,7 +5696,7 @@
         <v>1092</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>77</v>
@@ -5724,7 +5731,7 @@
         <v>1093</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>78</v>
@@ -5759,7 +5766,7 @@
         <v>1094</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>79</v>
@@ -5829,7 +5836,7 @@
         <v>1096</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>332</v>
@@ -5864,7 +5871,7 @@
         <v>1097</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>333</v>
@@ -5899,7 +5906,7 @@
         <v>1098</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>537</v>
@@ -5934,7 +5941,7 @@
         <v>1099</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>538</v>
@@ -5969,7 +5976,7 @@
         <v>1100</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>539</v>
@@ -6004,7 +6011,7 @@
         <v>1101</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>540</v>
@@ -6074,7 +6081,7 @@
         <v>1103</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>136</v>
@@ -6109,7 +6116,7 @@
         <v>1104</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>110</v>
@@ -6144,7 +6151,7 @@
         <v>1105</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>111</v>
@@ -6179,7 +6186,7 @@
         <v>1106</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>112</v>
@@ -6214,7 +6221,7 @@
         <v>1107</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>113</v>
@@ -6249,7 +6256,7 @@
         <v>1108</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>114</v>
@@ -6284,7 +6291,7 @@
         <v>1109</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>115</v>
@@ -6319,7 +6326,7 @@
         <v>1110</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>137</v>
@@ -6354,7 +6361,7 @@
         <v>1111</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>138</v>
@@ -6389,7 +6396,7 @@
         <v>1112</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>139</v>
@@ -6424,7 +6431,7 @@
         <v>1113</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>140</v>
@@ -6459,7 +6466,7 @@
         <v>1114</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>141</v>
@@ -6494,7 +6501,7 @@
         <v>1115</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>142</v>
@@ -6529,7 +6536,7 @@
         <v>1116</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>143</v>
@@ -6599,7 +6606,7 @@
         <v>1118</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>165</v>
@@ -6669,7 +6676,7 @@
         <v>1120</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>167</v>
@@ -6704,7 +6711,7 @@
         <v>1121</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>168</v>
@@ -6774,7 +6781,7 @@
         <v>1123</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>170</v>
@@ -6809,7 +6816,7 @@
         <v>1124</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>171</v>
@@ -6844,7 +6851,7 @@
         <v>1125</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>172</v>
@@ -7016,7 +7023,7 @@
         <v>1130</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>198</v>
@@ -7051,7 +7058,7 @@
         <v>1131</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>203</v>
@@ -7086,7 +7093,7 @@
         <v>1132</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>210</v>
@@ -7121,7 +7128,7 @@
         <v>1133</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>211</v>
@@ -7156,7 +7163,7 @@
         <v>1134</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>212</v>
@@ -7191,7 +7198,7 @@
         <v>1135</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>213</v>
@@ -7226,7 +7233,7 @@
         <v>1136</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>221</v>
@@ -7261,7 +7268,7 @@
         <v>1137</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>222</v>
@@ -7296,7 +7303,7 @@
         <v>1138</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>227</v>
@@ -7331,7 +7338,7 @@
         <v>1139</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>230</v>
@@ -7366,7 +7373,7 @@
         <v>1140</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>232</v>
@@ -7401,7 +7408,7 @@
         <v>1141</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>236</v>
@@ -7436,7 +7443,7 @@
         <v>1142</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>238</v>
@@ -7471,7 +7478,7 @@
         <v>1143</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>241</v>
@@ -7506,7 +7513,7 @@
         <v>1144</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>244</v>
@@ -7541,7 +7548,7 @@
         <v>1145</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>247</v>
@@ -7576,7 +7583,7 @@
         <v>1146</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>248</v>
@@ -7611,7 +7618,7 @@
         <v>1147</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>253</v>
@@ -7646,7 +7653,7 @@
         <v>1148</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>257</v>
@@ -7681,7 +7688,7 @@
         <v>1149</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>260</v>
@@ -7716,7 +7723,7 @@
         <v>1150</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>264</v>
@@ -7751,7 +7758,7 @@
         <v>1151</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>274</v>
@@ -7786,7 +7793,7 @@
         <v>1152</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>277</v>
@@ -7821,7 +7828,7 @@
         <v>1153</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>276</v>
@@ -7856,7 +7863,7 @@
         <v>1154</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>279</v>
@@ -7891,7 +7898,7 @@
         <v>1155</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>281</v>
@@ -7926,7 +7933,7 @@
         <v>1156</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>283</v>
@@ -7961,7 +7968,7 @@
         <v>1157</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>284</v>
@@ -7996,7 +8003,7 @@
         <v>1158</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>285</v>
@@ -8031,7 +8038,7 @@
         <v>1159</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>290</v>
@@ -8066,7 +8073,7 @@
         <v>1160</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>295</v>
@@ -8101,7 +8108,7 @@
         <v>1161</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>296</v>
@@ -8136,7 +8143,7 @@
         <v>1162</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>297</v>
@@ -8171,7 +8178,7 @@
         <v>1163</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>302</v>
@@ -8206,7 +8213,7 @@
         <v>1164</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>303</v>
@@ -8241,7 +8248,7 @@
         <v>1165</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>304</v>
@@ -8276,7 +8283,7 @@
         <v>1166</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>318</v>
@@ -8311,7 +8318,7 @@
         <v>1167</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>311</v>
@@ -8346,7 +8353,7 @@
         <v>1168</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>312</v>
@@ -8381,7 +8388,7 @@
         <v>1169</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>323</v>
@@ -8416,7 +8423,7 @@
         <v>1170</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>324</v>
@@ -8451,7 +8458,7 @@
         <v>1171</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>339</v>
@@ -8521,7 +8528,7 @@
         <v>1173</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>345</v>
@@ -8556,7 +8563,7 @@
         <v>1174</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>351</v>
@@ -8591,7 +8598,7 @@
         <v>1175</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>346</v>
@@ -8626,7 +8633,7 @@
         <v>1176</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>347</v>
@@ -8661,7 +8668,7 @@
         <v>1177</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>358</v>
@@ -8696,7 +8703,7 @@
         <v>1178</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>361</v>
@@ -8731,7 +8738,7 @@
         <v>1179</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>362</v>
@@ -8766,7 +8773,7 @@
         <v>1180</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>363</v>
@@ -8801,7 +8808,7 @@
         <v>1181</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>364</v>
@@ -8836,7 +8843,7 @@
         <v>1182</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>365</v>
@@ -8871,7 +8878,7 @@
         <v>1183</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>374</v>
@@ -8906,7 +8913,7 @@
         <v>1184</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>372</v>
@@ -8941,7 +8948,7 @@
         <v>1185</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>373</v>
@@ -8976,7 +8983,7 @@
         <v>1186</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>382</v>
@@ -9011,7 +9018,7 @@
         <v>1187</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>383</v>
@@ -9184,7 +9191,7 @@
         <v>1192</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>399</v>
@@ -9219,7 +9226,7 @@
         <v>1193</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>400</v>
@@ -11116,7 +11123,7 @@
         <v>1252</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>526</v>
@@ -11151,7 +11158,7 @@
         <v>1253</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>527</v>
@@ -11186,7 +11193,7 @@
         <v>1254</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>528</v>
@@ -11221,7 +11228,7 @@
         <v>1255</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>529</v>
@@ -11256,7 +11263,7 @@
         <v>1256</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>555</v>
@@ -11288,7 +11295,7 @@
         <v>1257</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>568</v>
@@ -11320,7 +11327,7 @@
         <v>1258</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>569</v>
@@ -11352,7 +11359,7 @@
         <v>1259</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>558</v>
@@ -11387,7 +11394,7 @@
         <v>1260</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>559</v>
@@ -11422,7 +11429,7 @@
         <v>1261</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>570</v>
@@ -11454,7 +11461,7 @@
         <v>1262</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>571</v>
@@ -11486,7 +11493,7 @@
         <v>1263</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>572</v>
@@ -11518,7 +11525,7 @@
         <v>1264</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>573</v>
@@ -11550,7 +11557,7 @@
         <v>1265</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>585</v>
@@ -11585,7 +11592,7 @@
         <v>1266</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>586</v>
@@ -11620,7 +11627,7 @@
         <v>1267</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>587</v>
@@ -11655,7 +11662,7 @@
         <v>1268</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>588</v>
@@ -11690,7 +11697,7 @@
         <v>1269</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>589</v>
@@ -11725,7 +11732,7 @@
         <v>1270</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>590</v>
@@ -11760,7 +11767,7 @@
         <v>1271</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>591</v>
@@ -11795,7 +11802,7 @@
         <v>1272</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>592</v>
@@ -11830,7 +11837,7 @@
         <v>1273</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>593</v>
@@ -11865,7 +11872,7 @@
         <v>1274</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>594</v>
@@ -11900,7 +11907,7 @@
         <v>1275</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>595</v>
@@ -11970,7 +11977,7 @@
         <v>1277</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>597</v>
@@ -12005,7 +12012,7 @@
         <v>1278</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>598</v>
@@ -12040,7 +12047,7 @@
         <v>1279</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>599</v>
@@ -12075,7 +12082,7 @@
         <v>1280</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>600</v>
@@ -12110,7 +12117,7 @@
         <v>1281</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>601</v>
@@ -12145,7 +12152,7 @@
         <v>1282</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>602</v>
@@ -12180,7 +12187,7 @@
         <v>1283</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>603</v>
@@ -12215,7 +12222,7 @@
         <v>1284</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>604</v>
@@ -12285,7 +12292,7 @@
         <v>1286</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>606</v>
@@ -12355,7 +12362,7 @@
         <v>1288</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>608</v>
@@ -12390,7 +12397,7 @@
         <v>1289</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>609</v>
@@ -12565,7 +12572,7 @@
         <v>1294</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>703</v>
@@ -12600,7 +12607,7 @@
         <v>1295</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>704</v>
@@ -12702,7 +12709,7 @@
         <v>1298</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>684</v>
@@ -12734,7 +12741,7 @@
         <v>1299</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>685</v>
@@ -12766,7 +12773,7 @@
         <v>1300</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>686</v>
@@ -12794,7 +12801,7 @@
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A228" s="3" t="s">
+      <c r="A228" s="4" t="s">
         <v>1301</v>
       </c>
       <c r="B228" s="3" t="s">
@@ -12903,7 +12910,7 @@
         <v>1304</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>716</v>
@@ -12938,7 +12945,7 @@
         <v>1305</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>717</v>
@@ -12973,7 +12980,7 @@
         <v>1306</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>718</v>
@@ -13008,7 +13015,7 @@
         <v>1307</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>719</v>
@@ -13043,7 +13050,7 @@
         <v>1308</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>720</v>
@@ -13078,7 +13085,7 @@
         <v>1309</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>721</v>
@@ -13113,7 +13120,7 @@
         <v>1310</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>722</v>
@@ -13148,7 +13155,7 @@
         <v>1311</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>723</v>
@@ -13183,7 +13190,7 @@
         <v>1312</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>742</v>
@@ -13218,7 +13225,7 @@
         <v>1313</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>746</v>
@@ -13253,7 +13260,7 @@
         <v>1314</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>757</v>
@@ -13288,7 +13295,7 @@
         <v>1315</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>758</v>
@@ -13323,7 +13330,7 @@
         <v>1316</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>763</v>
@@ -13358,7 +13365,7 @@
         <v>1317</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>765</v>
@@ -13393,7 +13400,7 @@
         <v>1318</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>766</v>
@@ -13428,7 +13435,7 @@
         <v>1319</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>767</v>
@@ -13463,7 +13470,7 @@
         <v>1320</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>785</v>
@@ -13498,7 +13505,7 @@
         <v>1321</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>786</v>
@@ -13533,7 +13540,7 @@
         <v>1322</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>788</v>
@@ -13568,7 +13575,7 @@
         <v>1323</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>791</v>
@@ -13603,7 +13610,7 @@
         <v>1324</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>793</v>
@@ -13638,7 +13645,7 @@
         <v>1325</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>794</v>
@@ -13673,7 +13680,7 @@
         <v>1326</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>795</v>
@@ -13708,7 +13715,7 @@
         <v>1327</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>796</v>
@@ -13743,7 +13750,7 @@
         <v>1328</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>8</v>
+        <v>816</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>806</v>
@@ -13844,7 +13851,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L2"/>
+  <autoFilter ref="A1:L257"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
